--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_15.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>626890.292743507</v>
+        <v>618012.4806982349</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7765049.281621783</v>
+        <v>6750972.622617717</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6187346.75695111</v>
+        <v>5193450.22346122</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7562481.765194871</v>
+        <v>7944968.53612016</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
         <v>406.0233447798626</v>
@@ -668,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>118.2179859315753</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>396.6425927105681</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>53.49405934753948</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>149.8451987105457</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,19 +901,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>6.338580986754886</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>155.102398462748</v>
       </c>
     </row>
     <row r="6">
@@ -1054,19 +1056,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>271.0640515220189</v>
+        <v>54.68688746169084</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>392.5647472501408</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>393.9470907639069</v>
       </c>
       <c r="D8" t="n">
         <v>400.41929060787</v>
@@ -1145,7 +1147,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>42.43741174507631</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
@@ -1354,10 +1356,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>180.6077930059085</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1367,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>392.5647472501403</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
@@ -1382,7 +1384,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1436,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>388.2474135039329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1604,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>392.5647472501408</v>
+        <v>388.3430365919143</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>410.1968133282722</v>
@@ -1619,7 +1621,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1841,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>397.7294175190405</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
@@ -1859,7 +1861,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>369.2659961340943</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -2011,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2052,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>50.75077153162147</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
@@ -2062,13 +2064,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>129.1752199258842</v>
       </c>
     </row>
     <row r="20">
@@ -2090,13 +2092,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>59.82422708687625</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>404.6410012660961</v>
+        <v>355.4445328256823</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>213.595211067239</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2332,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>219.9844192126098</v>
@@ -2375,7 +2377,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>37.78331767565417</v>
       </c>
       <c r="W23" t="n">
         <v>379.9226978561831</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>159.3854280103019</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>228.2601210751809</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2567,10 +2569,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>355.4445328256823</v>
+        <v>47.64512042712314</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2710,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>68.10104966859276</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2764,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
@@ -2776,10 +2778,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>44.21277235333839</v>
       </c>
     </row>
     <row r="29">
@@ -2801,13 +2803,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>282.1353944293379</v>
       </c>
       <c r="G29" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -2840,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>292.2732044987391</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
@@ -2962,10 +2964,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>54.68688746169106</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3004,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3013,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>176.2550321649798</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -3041,7 +3043,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
@@ -3077,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>96.0851398248662</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
         <v>254.489886823085</v>
@@ -3089,7 +3091,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>157.4229911737221</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
         <v>396.636963852737</v>
@@ -3202,10 +3204,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>54.68688746169106</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3250,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>65.31383608752344</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3272,7 +3274,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>321.6253710996518</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
@@ -3281,10 +3283,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>205.293418382671</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3436,10 +3438,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>54.68688746169106</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3484,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>220.2647746254034</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
@@ -3521,7 +3523,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.4066896505621</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>42.05236239524896</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>135.844783484049</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3746,19 +3748,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>372.3536886992977</v>
       </c>
       <c r="F41" t="n">
-        <v>59.82422708687625</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3895,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>61.2952647494452</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
@@ -3910,13 +3912,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
         <v>184.5278504388888</v>
@@ -3955,7 +3957,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>50.54197880711358</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>31.42227043795236</v>
       </c>
       <c r="T44" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4040,10 +4042,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>298.0721989747363</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
@@ -4198,10 +4200,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>180.6077930059085</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
   </sheetData>
@@ -4304,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1167.262103595554</v>
+        <v>1277.384018269584</v>
       </c>
       <c r="C2" t="n">
-        <v>757.1375129088235</v>
+        <v>867.259427582854</v>
       </c>
       <c r="D2" t="n">
-        <v>352.673583001884</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="E2" t="n">
-        <v>352.673583001884</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F2" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G2" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I2" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L2" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M2" t="n">
-        <v>1075.450954962253</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="N2" t="n">
-        <v>1592.293889628578</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="O2" t="n">
-        <v>2047.697635790537</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P2" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
         <v>2047.697635790537</v>
@@ -4367,13 +4369,13 @@
         <v>2088.254281480102</v>
       </c>
       <c r="W2" t="n">
-        <v>1968.842174478511</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X2" t="n">
-        <v>1568.198776647464</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y2" t="n">
-        <v>1167.262103595554</v>
+        <v>1687.605197934073</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G3" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960225</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960225</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K3" t="n">
-        <v>41.76508562960225</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L3" t="n">
-        <v>558.6080202959275</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M3" t="n">
-        <v>1075.450954962253</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N3" t="n">
-        <v>1075.450954962253</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="O3" t="n">
-        <v>1541.851827451147</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P3" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q3" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4443,16 +4445,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X3" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>919.1798382218744</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="C4" t="n">
-        <v>748.0864657835909</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="D4" t="n">
-        <v>588.5918211065009</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="E4" t="n">
-        <v>427.6810059748204</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="F4" t="n">
-        <v>263.0498800854116</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="G4" t="n">
-        <v>95.79948901095506</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H4" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J4" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K4" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L4" t="n">
         <v>470.2970630371111</v>
@@ -4513,25 +4515,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T4" t="n">
-        <v>1331.615243227154</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U4" t="n">
-        <v>1331.615243227154</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V4" t="n">
-        <v>1331.615243227154</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="W4" t="n">
-        <v>1331.615243227154</v>
+        <v>309.4699181015847</v>
       </c>
       <c r="X4" t="n">
-        <v>1331.615243227154</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="Y4" t="n">
-        <v>1106.879544615919</v>
+        <v>158.1111315252759</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1270.693821706375</v>
+        <v>1171.526457795782</v>
       </c>
       <c r="C5" t="n">
-        <v>860.5692310196448</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="D5" t="n">
-        <v>456.1053011127053</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="E5" t="n">
-        <v>41.76508562960205</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="F5" t="n">
-        <v>41.76508562960205</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I5" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K5" t="n">
-        <v>558.6080202959273</v>
+        <v>537.7254774811263</v>
       </c>
       <c r="L5" t="n">
-        <v>692.8507596625949</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="M5" t="n">
-        <v>692.8507596625949</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N5" t="n">
-        <v>692.8507596625949</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O5" t="n">
-        <v>1209.69369432892</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P5" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
@@ -4601,16 +4603,16 @@
         <v>2088.254281480102</v>
       </c>
       <c r="V5" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.416726816582</v>
       </c>
       <c r="W5" t="n">
-        <v>2081.851674422774</v>
+        <v>1738.416726816582</v>
       </c>
       <c r="X5" t="n">
-        <v>2081.851674422774</v>
+        <v>1738.416726816582</v>
       </c>
       <c r="Y5" t="n">
-        <v>1680.915001370864</v>
+        <v>1581.747637460271</v>
       </c>
     </row>
     <row r="6">
@@ -4638,22 +4640,22 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I6" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J6" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K6" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L6" t="n">
-        <v>751.4208778585605</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M6" t="n">
-        <v>1054.568412147451</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N6" t="n">
         <v>1571.411346813777</v>
@@ -4699,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.76508562960205</v>
+        <v>865.1454348405214</v>
       </c>
       <c r="C7" t="n">
-        <v>41.76508562960205</v>
+        <v>694.0520624022379</v>
       </c>
       <c r="D7" t="n">
-        <v>41.76508562960205</v>
+        <v>534.5574177251478</v>
       </c>
       <c r="E7" t="n">
-        <v>41.76508562960205</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="F7" t="n">
-        <v>41.76508562960205</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J7" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K7" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L7" t="n">
         <v>470.2970630371111</v>
@@ -4747,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>777.1526093285881</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>503.2668642681101</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>229.4647920236465</v>
+        <v>1515.924701986118</v>
       </c>
       <c r="X7" t="n">
-        <v>229.4647920236465</v>
+        <v>1277.580839845801</v>
       </c>
       <c r="Y7" t="n">
-        <v>229.4647920236465</v>
+        <v>1052.845141234566</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1691.724233752687</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="C8" t="n">
-        <v>1281.599643065957</v>
+        <v>1690.327927173125</v>
       </c>
       <c r="D8" t="n">
-        <v>877.1357131590178</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E8" t="n">
-        <v>462.7954976759145</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F8" t="n">
-        <v>41.76508562960205</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L8" t="n">
-        <v>176.0078249962696</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M8" t="n">
-        <v>692.8507596625949</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="N8" t="n">
-        <v>1209.69369432892</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="O8" t="n">
-        <v>1726.536628995245</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P8" t="n">
-        <v>1726.536628995245</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q8" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
@@ -4857,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G9" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J9" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K9" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L9" t="n">
-        <v>234.5779431922353</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M9" t="n">
-        <v>751.4208778585605</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N9" t="n">
-        <v>1268.263812524886</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="O9" t="n">
-        <v>1738.409816796119</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P9" t="n">
-        <v>1738.409816796119</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q9" t="n">
         <v>2088.254281480102</v>
@@ -4917,16 +4919,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X9" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="10">
@@ -4936,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C10" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D10" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E10" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F10" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L10" t="n">
         <v>470.2970630371111</v>
@@ -4984,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1059.950756782464</v>
+        <v>1528.297909780678</v>
       </c>
       <c r="U10" t="n">
-        <v>777.1526093285881</v>
+        <v>1245.499762326802</v>
       </c>
       <c r="V10" t="n">
-        <v>503.2668642681101</v>
+        <v>971.614017266324</v>
       </c>
       <c r="W10" t="n">
-        <v>224.1971997769844</v>
+        <v>692.5443527751984</v>
       </c>
       <c r="X10" t="n">
-        <v>41.76508562960205</v>
+        <v>454.2004906348817</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.76508562960205</v>
+        <v>229.4647920236464</v>
       </c>
     </row>
     <row r="11">
@@ -5015,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1285.863997266186</v>
+        <v>1691.724233752687</v>
       </c>
       <c r="C11" t="n">
-        <v>1285.863997266186</v>
+        <v>1281.599643065957</v>
       </c>
       <c r="D11" t="n">
-        <v>1285.863997266186</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="E11" t="n">
-        <v>871.5237817830823</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F11" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G11" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H11" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I11" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J11" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K11" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L11" t="n">
-        <v>558.6080202959273</v>
+        <v>733.4074053521595</v>
       </c>
       <c r="M11" t="n">
-        <v>1075.450954962253</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="N11" t="n">
-        <v>1592.293889628578</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="O11" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P11" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q11" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R11" t="n">
         <v>2088.254281480102</v>
@@ -5084,7 +5086,7 @@
         <v>2088.254281480102</v>
       </c>
       <c r="Y11" t="n">
-        <v>1696.085176930675</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5114,28 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H12" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I12" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J12" t="n">
-        <v>234.5779431922353</v>
+        <v>81.91922121582758</v>
       </c>
       <c r="K12" t="n">
-        <v>234.5779431922353</v>
+        <v>537.7254774811263</v>
       </c>
       <c r="L12" t="n">
-        <v>234.5779431922353</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="M12" t="n">
-        <v>537.7254774811262</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N12" t="n">
-        <v>1054.568412147451</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O12" t="n">
-        <v>1571.411346813777</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P12" t="n">
         <v>2088.254281480102</v>
@@ -5188,19 +5190,19 @@
         <v>474.9689777942758</v>
       </c>
       <c r="G13" t="n">
-        <v>307.7185867198193</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H13" t="n">
         <v>158.1111315252759</v>
       </c>
       <c r="I13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J13" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K13" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L13" t="n">
         <v>470.2970630371111</v>
@@ -5252,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1691.724233752687</v>
+        <v>1695.988587952916</v>
       </c>
       <c r="C14" t="n">
-        <v>1281.599643065957</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="D14" t="n">
-        <v>877.1357131590178</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E14" t="n">
-        <v>462.7954976759145</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F14" t="n">
-        <v>41.76508562960205</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G14" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H14" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I14" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J14" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K14" t="n">
-        <v>558.6080202959273</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L14" t="n">
-        <v>558.6080202959273</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="M14" t="n">
-        <v>558.6080202959273</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="N14" t="n">
-        <v>1075.450954962253</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="O14" t="n">
         <v>1592.293889628578</v>
       </c>
       <c r="P14" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q14" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R14" t="n">
         <v>2088.254281480102</v>
@@ -5349,28 +5351,28 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H15" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I15" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J15" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K15" t="n">
-        <v>234.5779431922353</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L15" t="n">
-        <v>537.7254774811262</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M15" t="n">
+        <v>1014.414276561226</v>
+      </c>
+      <c r="N15" t="n">
         <v>1054.568412147451</v>
       </c>
-      <c r="N15" t="n">
+      <c r="O15" t="n">
         <v>1571.411346813777</v>
-      </c>
-      <c r="O15" t="n">
-        <v>2088.254281480102</v>
       </c>
       <c r="P15" t="n">
         <v>2088.254281480102</v>
@@ -5425,19 +5427,19 @@
         <v>474.9689777942758</v>
       </c>
       <c r="G16" t="n">
-        <v>307.7185867198193</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H16" t="n">
         <v>158.1111315252759</v>
       </c>
       <c r="I16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J16" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K16" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L16" t="n">
         <v>470.2970630371111</v>
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1285.863997266186</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C17" t="n">
-        <v>1285.863997266186</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D17" t="n">
-        <v>1285.863997266186</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E17" t="n">
-        <v>871.5237817830823</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F17" t="n">
-        <v>450.4933697367699</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G17" t="n">
-        <v>41.76508562960205</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H17" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I17" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>41.76508562960205</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K17" t="n">
-        <v>41.76508562960205</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L17" t="n">
-        <v>558.6080202959273</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M17" t="n">
-        <v>1075.450954962253</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N17" t="n">
-        <v>1592.293889628578</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O17" t="n">
-        <v>2047.697635790537</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P17" t="n">
-        <v>2047.697635790537</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q17" t="n">
-        <v>2047.697635790537</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R17" t="n">
-        <v>2088.254281480102</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>2088.254281480102</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>2088.254281480102</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U17" t="n">
-        <v>2088.254281480102</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V17" t="n">
-        <v>2088.254281480102</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="W17" t="n">
-        <v>2088.254281480102</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X17" t="n">
-        <v>1687.610883649055</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y17" t="n">
-        <v>1687.610883649055</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>720.5959275161365</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C18" t="n">
-        <v>586.6008562650821</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D18" t="n">
-        <v>469.7036984844746</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E18" t="n">
-        <v>349.2108824768026</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F18" t="n">
-        <v>240.2510026593071</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G18" t="n">
-        <v>133.2608899736458</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H18" t="n">
-        <v>62.51367700936187</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I18" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>558.6080202959273</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M18" t="n">
-        <v>1075.450954962253</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N18" t="n">
-        <v>1571.411346813777</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O18" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P18" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q18" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R18" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S18" t="n">
-        <v>1980.264271594411</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T18" t="n">
-        <v>1820.922407781419</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U18" t="n">
-        <v>1623.571596919638</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V18" t="n">
-        <v>1409.860069912671</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W18" t="n">
-        <v>1196.626901649</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X18" t="n">
-        <v>1020.300919787893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y18" t="n">
-        <v>860.8989601517231</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>639.6001036836846</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C19" t="n">
-        <v>639.6001036836846</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D19" t="n">
-        <v>639.6001036836846</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>639.6001036836846</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>474.9689777942758</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>307.7185867198193</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
-        <v>158.1111315252759</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J19" t="n">
-        <v>55.84763503481257</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K19" t="n">
-        <v>210.3999627570506</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L19" t="n">
-        <v>470.2970630371111</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M19" t="n">
-        <v>759.5611194776044</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N19" t="n">
-        <v>1040.399901871855</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O19" t="n">
-        <v>1299.960512198329</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P19" t="n">
-        <v>1505.635952447941</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q19" t="n">
-        <v>1571.163982250452</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1485.891263925851</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S19" t="n">
-        <v>1434.627858338355</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T19" t="n">
-        <v>1434.627858338355</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="U19" t="n">
-        <v>1151.829710884479</v>
+        <v>1015.022989509699</v>
       </c>
       <c r="V19" t="n">
-        <v>877.9439658240012</v>
+        <v>741.1372444492208</v>
       </c>
       <c r="W19" t="n">
-        <v>877.9439658240012</v>
+        <v>462.0675799580952</v>
       </c>
       <c r="X19" t="n">
-        <v>639.6001036836846</v>
+        <v>223.7237178177785</v>
       </c>
       <c r="Y19" t="n">
-        <v>639.6001036836846</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="20">
@@ -5738,10 +5740,10 @@
         <v>873.3089913790386</v>
       </c>
       <c r="F20" t="n">
-        <v>812.8804791700727</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G20" t="n">
-        <v>404.1521950629048</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H20" t="n">
         <v>93.2436976906228</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>772.0745395771571</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C21" t="n">
-        <v>638.0794683261029</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D21" t="n">
-        <v>521.1823105454953</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E21" t="n">
-        <v>400.6894945378233</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F21" t="n">
-        <v>291.7296147203278</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G21" t="n">
-        <v>184.7395020346666</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H21" t="n">
-        <v>113.9922890703826</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I21" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>3458.672769375206</v>
       </c>
       <c r="N21" t="n">
-        <v>1435.775802995229</v>
+        <v>3958.227793985246</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R21" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S21" t="n">
-        <v>2031.742883655432</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T21" t="n">
-        <v>1872.40101984244</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U21" t="n">
-        <v>1675.050208980659</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V21" t="n">
-        <v>1461.338681973692</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W21" t="n">
-        <v>1248.105513710021</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X21" t="n">
-        <v>1071.779531848914</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y21" t="n">
-        <v>912.3775722127438</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1182.57754799176</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="C22" t="n">
-        <v>1011.484175553476</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="D22" t="n">
-        <v>851.989530876386</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E22" t="n">
-        <v>691.0787157447054</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F22" t="n">
-        <v>526.4475898552967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G22" t="n">
-        <v>359.19719878084</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H22" t="n">
-        <v>209.5897435862967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I22" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J22" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K22" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L22" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M22" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N22" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O22" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P22" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q22" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R22" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S22" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T22" t="n">
-        <v>1622.642594311473</v>
+        <v>4422.636145507842</v>
       </c>
       <c r="U22" t="n">
-        <v>1622.642594311473</v>
+        <v>4139.837998053967</v>
       </c>
       <c r="V22" t="n">
-        <v>1622.642594311473</v>
+        <v>3865.952252993488</v>
       </c>
       <c r="W22" t="n">
-        <v>1622.642594311473</v>
+        <v>3586.882588502363</v>
       </c>
       <c r="X22" t="n">
-        <v>1595.012952997039</v>
+        <v>3348.538726362046</v>
       </c>
       <c r="Y22" t="n">
-        <v>1370.277254385804</v>
+        <v>3132.785987910289</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C23" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D23" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E23" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F23" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G23" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H23" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6014,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>772.0745395771571</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C24" t="n">
-        <v>638.0794683261029</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D24" t="n">
-        <v>521.1823105454953</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E24" t="n">
-        <v>400.6894945378233</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F24" t="n">
-        <v>291.7296147203278</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G24" t="n">
-        <v>184.7395020346666</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H24" t="n">
-        <v>113.9922890703826</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I24" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>3458.672769375206</v>
       </c>
       <c r="N24" t="n">
-        <v>1435.775802995229</v>
+        <v>4332.330861486824</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R24" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S24" t="n">
-        <v>2031.742883655432</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T24" t="n">
-        <v>1872.40101984244</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U24" t="n">
-        <v>1675.050208980659</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V24" t="n">
-        <v>1461.338681973692</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W24" t="n">
-        <v>1248.105513710021</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X24" t="n">
-        <v>1071.779531848914</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y24" t="n">
-        <v>912.3775722127438</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1182.57754799176</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="C25" t="n">
-        <v>1011.484175553476</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="D25" t="n">
-        <v>851.989530876386</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E25" t="n">
-        <v>691.0787157447054</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F25" t="n">
-        <v>526.4475898552967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G25" t="n">
-        <v>359.19719878084</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H25" t="n">
-        <v>209.5897435862967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I25" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J25" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K25" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L25" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M25" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N25" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O25" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P25" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q25" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R25" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S25" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T25" t="n">
-        <v>1622.642594311473</v>
+        <v>4431.619105667321</v>
       </c>
       <c r="U25" t="n">
-        <v>1622.642594311473</v>
+        <v>4148.820958213445</v>
       </c>
       <c r="V25" t="n">
-        <v>1622.642594311473</v>
+        <v>3874.935213152967</v>
       </c>
       <c r="W25" t="n">
-        <v>1343.572929820347</v>
+        <v>3595.865548661841</v>
       </c>
       <c r="X25" t="n">
-        <v>1343.572929820347</v>
+        <v>3357.521686521525</v>
       </c>
       <c r="Y25" t="n">
-        <v>1343.572929820347</v>
+        <v>3132.785987910289</v>
       </c>
     </row>
     <row r="26">
@@ -6215,7 +6217,7 @@
         <v>452.2785793327262</v>
       </c>
       <c r="G26" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H26" t="n">
         <v>93.2436976906228</v>
@@ -6312,7 +6314,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N27" t="n">
         <v>1435.775802995229</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>657.2517797545896</v>
+        <v>3303.879360348573</v>
       </c>
       <c r="C28" t="n">
-        <v>486.1584073163061</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="D28" t="n">
-        <v>326.6637626392161</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E28" t="n">
-        <v>326.6637626392161</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F28" t="n">
-        <v>162.0326367498074</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G28" t="n">
-        <v>162.0326367498074</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H28" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I28" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J28" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K28" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L28" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M28" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N28" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O28" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P28" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q28" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R28" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S28" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T28" t="n">
-        <v>1622.642594311473</v>
+        <v>4422.636145507842</v>
       </c>
       <c r="U28" t="n">
-        <v>1622.642594311473</v>
+        <v>4139.837998053967</v>
       </c>
       <c r="V28" t="n">
-        <v>1348.756849250995</v>
+        <v>3865.952252993488</v>
       </c>
       <c r="W28" t="n">
-        <v>1069.687184759869</v>
+        <v>3586.882588502363</v>
       </c>
       <c r="X28" t="n">
-        <v>1069.687184759869</v>
+        <v>3348.538726362046</v>
       </c>
       <c r="Y28" t="n">
-        <v>844.951486148634</v>
+        <v>3303.879360348573</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C29" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D29" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E29" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F29" t="n">
-        <v>899.2322418529996</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G29" t="n">
-        <v>490.5039577458317</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H29" t="n">
         <v>179.5954603735497</v>
@@ -6488,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T29" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U29" t="n">
-        <v>4439.978400477999</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V29" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W29" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X29" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y29" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="30">
@@ -6540,22 +6542,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K30" t="n">
-        <v>704.368908940975</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L30" t="n">
-        <v>704.368908940975</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M30" t="n">
-        <v>704.368908940975</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N30" t="n">
-        <v>1578.027001052593</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O30" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P30" t="n">
         <v>2139.732893541123</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>749.3736558270855</v>
+        <v>4011.405617385543</v>
       </c>
       <c r="C31" t="n">
-        <v>578.280283388802</v>
+        <v>3840.31224494726</v>
       </c>
       <c r="D31" t="n">
-        <v>418.7856387117121</v>
+        <v>3680.81760027017</v>
       </c>
       <c r="E31" t="n">
-        <v>257.8748235800315</v>
+        <v>3519.906785138489</v>
       </c>
       <c r="F31" t="n">
-        <v>93.2436976906228</v>
+        <v>3355.27565924908</v>
       </c>
       <c r="G31" t="n">
-        <v>93.2436976906228</v>
+        <v>3188.025268174624</v>
       </c>
       <c r="H31" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I31" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J31" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K31" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L31" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M31" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N31" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O31" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P31" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q31" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R31" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S31" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T31" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U31" t="n">
-        <v>1339.844446857597</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="V31" t="n">
-        <v>1339.844446857597</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="W31" t="n">
-        <v>1339.844446857597</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="X31" t="n">
-        <v>1161.809060832365</v>
+        <v>4423.841022390823</v>
       </c>
       <c r="Y31" t="n">
-        <v>937.0733622211299</v>
+        <v>4199.105323779588</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2549.191389976085</v>
+        <v>2140.463105868917</v>
       </c>
       <c r="C32" t="n">
-        <v>2139.066799289355</v>
+        <v>1730.338515182187</v>
       </c>
       <c r="D32" t="n">
-        <v>1734.602869382415</v>
+        <v>1325.874585275247</v>
       </c>
       <c r="E32" t="n">
-        <v>1320.262653899312</v>
+        <v>911.5343697921442</v>
       </c>
       <c r="F32" t="n">
-        <v>899.2322418529996</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="G32" t="n">
         <v>490.5039577458317</v>
@@ -6725,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4526.90380932524</v>
+        <v>4565.129187738346</v>
       </c>
       <c r="T32" t="n">
-        <v>4526.90380932524</v>
+        <v>4342.922703685204</v>
       </c>
       <c r="U32" t="n">
-        <v>4269.84331758475</v>
+        <v>4085.862211944715</v>
       </c>
       <c r="V32" t="n">
-        <v>3920.005762921231</v>
+        <v>3736.024657281195</v>
       </c>
       <c r="W32" t="n">
-        <v>3760.992640523532</v>
+        <v>3352.264356416364</v>
       </c>
       <c r="X32" t="n">
-        <v>3360.349242692484</v>
+        <v>2951.620958585316</v>
       </c>
       <c r="Y32" t="n">
-        <v>2959.412569640574</v>
+        <v>2550.684285533406</v>
       </c>
     </row>
     <row r="33">
@@ -6783,16 +6785,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M33" t="n">
-        <v>874.0699105066985</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N33" t="n">
-        <v>874.0699105066985</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O33" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P33" t="n">
         <v>2139.732893541123</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1182.57754799176</v>
+        <v>4011.405617385543</v>
       </c>
       <c r="C34" t="n">
-        <v>1011.484175553476</v>
+        <v>3840.31224494726</v>
       </c>
       <c r="D34" t="n">
-        <v>851.989530876386</v>
+        <v>3680.81760027017</v>
       </c>
       <c r="E34" t="n">
-        <v>691.0787157447054</v>
+        <v>3519.906785138489</v>
       </c>
       <c r="F34" t="n">
-        <v>526.4475898552967</v>
+        <v>3355.27565924908</v>
       </c>
       <c r="G34" t="n">
-        <v>359.19719878084</v>
+        <v>3188.025268174624</v>
       </c>
       <c r="H34" t="n">
-        <v>209.5897435862967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I34" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J34" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K34" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L34" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M34" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N34" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O34" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P34" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q34" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S34" t="n">
-        <v>1436.250826191383</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T34" t="n">
-        <v>1436.250826191383</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U34" t="n">
-        <v>1436.250826191383</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="V34" t="n">
-        <v>1436.250826191383</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="W34" t="n">
-        <v>1436.250826191383</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="X34" t="n">
-        <v>1436.250826191383</v>
+        <v>4423.841022390823</v>
       </c>
       <c r="Y34" t="n">
-        <v>1370.277254385804</v>
+        <v>4199.105323779588</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2459.725286714852</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C35" t="n">
-        <v>2049.600696028122</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D35" t="n">
-        <v>1645.136766121183</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E35" t="n">
-        <v>1320.262653899312</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F35" t="n">
-        <v>899.2322418529996</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G35" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H35" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6962,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T35" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U35" t="n">
-        <v>4405.12439279065</v>
+        <v>4097.330235996674</v>
       </c>
       <c r="V35" t="n">
-        <v>4055.286838127131</v>
+        <v>3747.492681333154</v>
       </c>
       <c r="W35" t="n">
-        <v>3671.526537262299</v>
+        <v>3363.732380468323</v>
       </c>
       <c r="X35" t="n">
-        <v>3270.883139431251</v>
+        <v>2963.088982637275</v>
       </c>
       <c r="Y35" t="n">
-        <v>2869.946466379341</v>
+        <v>2562.152309585365</v>
       </c>
     </row>
     <row r="36">
@@ -7014,19 +7016,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K36" t="n">
-        <v>562.1177108836107</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L36" t="n">
-        <v>562.1177108836107</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M36" t="n">
-        <v>562.1177108836107</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N36" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O36" t="n">
         <v>2139.732893541123</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4011.405617385543</v>
+        <v>749.3736558270855</v>
       </c>
       <c r="C37" t="n">
-        <v>3840.31224494726</v>
+        <v>578.280283388802</v>
       </c>
       <c r="D37" t="n">
-        <v>3680.81760027017</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="E37" t="n">
-        <v>3519.906785138489</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F37" t="n">
-        <v>3355.27565924908</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
-        <v>3188.025268174624</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K37" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L37" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M37" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N37" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O37" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P37" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W37" t="n">
-        <v>4662.18488453114</v>
+        <v>1400.152922972682</v>
       </c>
       <c r="X37" t="n">
-        <v>4423.841022390823</v>
+        <v>1161.809060832365</v>
       </c>
       <c r="Y37" t="n">
-        <v>4199.105323779588</v>
+        <v>937.0733622211299</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2462.839627293158</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C38" t="n">
-        <v>2052.715036606428</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D38" t="n">
-        <v>1648.251106699488</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E38" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F38" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G38" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H38" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7199,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U38" t="n">
-        <v>4408.238733368956</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V38" t="n">
-        <v>4058.401178705436</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W38" t="n">
-        <v>3674.640877840605</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X38" t="n">
-        <v>3273.997480009557</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y38" t="n">
-        <v>2873.060806957647</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="39">
@@ -7251,19 +7253,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K39" t="n">
-        <v>741.8628115185547</v>
+        <v>423.0977207349383</v>
       </c>
       <c r="L39" t="n">
-        <v>1402.950983437843</v>
+        <v>423.0977207349383</v>
       </c>
       <c r="M39" t="n">
-        <v>1435.775802995229</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="N39" t="n">
-        <v>1435.775802995229</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O39" t="n">
         <v>2139.732893541123</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>401.6743325134148</v>
+        <v>749.3736558270855</v>
       </c>
       <c r="C40" t="n">
-        <v>401.6743325134148</v>
+        <v>578.280283388802</v>
       </c>
       <c r="D40" t="n">
-        <v>401.6743325134148</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="E40" t="n">
-        <v>401.6743325134148</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F40" t="n">
-        <v>401.6743325134148</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7354,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S40" t="n">
-        <v>1436.250826191383</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T40" t="n">
-        <v>1196.702087168085</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U40" t="n">
-        <v>913.9039397142094</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="V40" t="n">
-        <v>640.0181946537314</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="W40" t="n">
-        <v>640.0181946537314</v>
+        <v>1400.152922972682</v>
       </c>
       <c r="X40" t="n">
-        <v>401.6743325134148</v>
+        <v>1161.809060832365</v>
       </c>
       <c r="Y40" t="n">
-        <v>401.6743325134148</v>
+        <v>937.0733622211299</v>
       </c>
     </row>
     <row r="41">
@@ -7394,16 +7396,16 @@
         <v>1287.649206862142</v>
       </c>
       <c r="E41" t="n">
-        <v>873.3089913790386</v>
+        <v>911.5343697921442</v>
       </c>
       <c r="F41" t="n">
-        <v>812.8804791700727</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="G41" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H41" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
@@ -7412,7 +7414,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L41" t="n">
         <v>1598.180070079655</v>
@@ -7497,13 +7499,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M42" t="n">
-        <v>93.2436976906228</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N42" t="n">
-        <v>966.9017898022406</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O42" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P42" t="n">
         <v>2139.732893541123</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>913.9039397142094</v>
+        <v>589.8790111499956</v>
       </c>
       <c r="C43" t="n">
-        <v>913.9039397142094</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="D43" t="n">
-        <v>851.989530876386</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="E43" t="n">
-        <v>691.0787157447054</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F43" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G43" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H43" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
         <v>93.2436976906228</v>
@@ -7591,28 +7593,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S43" t="n">
-        <v>1436.250826191383</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T43" t="n">
-        <v>1196.702087168085</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U43" t="n">
-        <v>913.9039397142094</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V43" t="n">
-        <v>913.9039397142094</v>
+        <v>777.5787175440399</v>
       </c>
       <c r="W43" t="n">
-        <v>913.9039397142094</v>
+        <v>777.5787175440399</v>
       </c>
       <c r="X43" t="n">
-        <v>913.9039397142094</v>
+        <v>777.5787175440399</v>
       </c>
       <c r="Y43" t="n">
-        <v>913.9039397142094</v>
+        <v>777.5787175440399</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>439.0253456848109</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C44" t="n">
-        <v>439.0253456848109</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D44" t="n">
-        <v>439.0253456848109</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E44" t="n">
-        <v>439.0253456848109</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F44" t="n">
-        <v>439.0253456848109</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G44" t="n">
-        <v>439.0253456848109</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H44" t="n">
-        <v>128.1168483125289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I44" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>295.9505570973564</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>295.9505570973564</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
-        <v>692.8507596625949</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>692.8507596625949</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>692.8507596625949</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>1209.69369432892</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>1726.536628995245</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>2047.697635790537</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>2088.254281480102</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>1952.973206274203</v>
+        <v>4630.445217422097</v>
       </c>
       <c r="T44" t="n">
-        <v>1730.766722221062</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="U44" t="n">
-        <v>1473.706230480572</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V44" t="n">
-        <v>1123.868675817053</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W44" t="n">
-        <v>740.1083749522213</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X44" t="n">
-        <v>439.0253456848109</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y44" t="n">
-        <v>439.0253456848109</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>720.5959275161366</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>586.6008562650824</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>469.7036984844747</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>349.2108824768027</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>240.2510026593072</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>133.260889973646</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>62.51367700936203</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>41.76508562960205</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>187.8810127971431</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>704.7239474634683</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M45" t="n">
-        <v>1221.566882129794</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N45" t="n">
-        <v>1738.409816796119</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O45" t="n">
-        <v>1738.409816796119</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P45" t="n">
-        <v>1738.409816796119</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q45" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>1980.264271594411</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>1820.922407781419</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>1623.571596919638</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>1409.860069912672</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>1196.626901649001</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>1020.300919787893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>860.8989601517233</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C46" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D46" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E46" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F46" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G46" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H46" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>55.84763503481257</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>210.3999627570506</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>470.2970630371111</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>759.5611194776044</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>1040.399901871855</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>1299.960512198329</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>1505.635952447941</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>1571.163982250452</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1485.891263925851</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>1299.499495805762</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T46" t="n">
-        <v>1059.950756782464</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U46" t="n">
-        <v>777.1526093285881</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V46" t="n">
-        <v>503.2668642681101</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W46" t="n">
-        <v>224.1971997769844</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X46" t="n">
-        <v>41.76508562960205</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y46" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>553.1935596277625</v>
+        <v>494.0990711462258</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
         <v>128.2784515920617</v>
@@ -8061,25 +8063,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M3" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N3" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>528.8634714130245</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P3" t="n">
-        <v>576.3232053728293</v>
+        <v>555.2297277821212</v>
       </c>
       <c r="Q3" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8216,28 +8218,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>590.1064824525346</v>
       </c>
       <c r="L5" t="n">
-        <v>231.0841246958424</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M5" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958087</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,22 +8294,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M6" t="n">
-        <v>363.7739143332568</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>554.1634861730674</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P6" t="n">
         <v>54.25963500280375</v>
@@ -8456,25 +8458,25 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>231.0841246958424</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O8" t="n">
-        <v>615.2533459958087</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>270.2143986912198</v>
       </c>
       <c r="Q8" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,28 +8531,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>532.6464328093261</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>555.2297277821212</v>
       </c>
       <c r="Q9" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
         <v>59.00019910540541</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L11" t="n">
-        <v>617.5489684328704</v>
+        <v>537.3610023606258</v>
       </c>
       <c r="M11" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N11" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O11" t="n">
-        <v>553.1935596277625</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P11" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,25 +8768,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>246.129700984478</v>
+        <v>91.92897171537935</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M12" t="n">
-        <v>363.7739143332567</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N12" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O12" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
@@ -8927,28 +8929,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K14" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L14" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M14" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N14" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O14" t="n">
-        <v>615.2533459958087</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P14" t="n">
-        <v>553.6531472828635</v>
+        <v>594.6194560602016</v>
       </c>
       <c r="Q14" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,25 +9005,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>362.3241544056883</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M15" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>575.2569637637755</v>
+        <v>93.75312630912927</v>
       </c>
       <c r="O15" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.32359133330795</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K17" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L17" t="n">
-        <v>617.5489684328704</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M17" t="n">
-        <v>615.3537948270711</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N17" t="n">
-        <v>614.9758611266449</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O17" t="n">
-        <v>553.1935596277625</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P17" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q17" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
         <v>128.2784515920617</v>
@@ -9246,16 +9248,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>579.627854108443</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N18" t="n">
-        <v>554.1634861730672</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>579.8150493700256</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
@@ -9407,7 +9409,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M20" t="n">
-        <v>877.4504173780092</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N20" t="n">
         <v>853.701196452193</v>
@@ -9419,7 +9421,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q20" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R20" t="n">
         <v>128.2784515920617</v>
@@ -9489,7 +9491,7 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N21" t="n">
-        <v>557.7944283533855</v>
+        <v>557.7944283533856</v>
       </c>
       <c r="O21" t="n">
         <v>768.8192472281761</v>
@@ -9726,10 +9728,10 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N24" t="n">
-        <v>557.7944283533855</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629454</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
@@ -9896,7 +9898,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R26" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,10 +9962,10 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N27" t="n">
-        <v>557.7944283533855</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O27" t="n">
         <v>768.8192472281761</v>
@@ -10188,25 +10190,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>478.3635137823113</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>557.7944283533855</v>
       </c>
       <c r="O30" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P30" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
         <v>56.69261850483872</v>
@@ -10370,7 +10372,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R32" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,19 +10433,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>846.2776300172818</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N33" t="n">
-        <v>53.19339339374999</v>
+        <v>601.0963663600584</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q33" t="n">
         <v>56.69261850483872</v>
@@ -10604,10 +10606,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q35" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,22 +10664,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>334.6754349364888</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N36" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P36" t="n">
         <v>54.25963500280375</v>
@@ -10826,7 +10828,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L38" t="n">
-        <v>815.2746908024794</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M38" t="n">
         <v>877.4504173780091</v>
@@ -10899,22 +10901,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
-        <v>516.2361426485535</v>
+        <v>389.0116646475603</v>
       </c>
       <c r="L39" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>90.72066712971599</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N39" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
         <v>54.25963500280375</v>
@@ -11060,7 +11062,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>632.7318453389136</v>
+        <v>632.7318453389137</v>
       </c>
       <c r="L41" t="n">
         <v>815.2746908024792</v>
@@ -11081,7 +11083,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11145,16 +11147,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N42" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O42" t="n">
-        <v>675.0496721821739</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P42" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
         <v>56.69261850483872</v>
@@ -11297,22 +11299,22 @@
         <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
-        <v>496.3946935832878</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>615.2533459958087</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>615.7129336509097</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
         <v>414.4388617681339</v>
@@ -11373,19 +11375,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>203.4176284083942</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>578.1780941808746</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>579.627854108443</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N45" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
         <v>57.751479</v>
@@ -11394,7 +11396,7 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22556,13 +22558,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -22607,13 +22609,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>261.7047119246078</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>0.2847136108227346</v>
       </c>
     </row>
     <row r="3">
@@ -22702,28 +22704,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>94.61732129505843</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,25 +22755,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>86.11522480836777</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -22787,19 +22789,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -22841,16 +22843,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>373.5841168694282</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.8249078586428</v>
       </c>
     </row>
     <row r="6">
@@ -22942,19 +22944,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
@@ -22987,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>5.214916324195428</v>
+        <v>221.5920803845235</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23018,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.55422061770378</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>12.07625401595567</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -23033,7 +23035,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
@@ -23176,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>169.3824387139007</v>
@@ -23224,13 +23226,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>194.7158398879886</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -23242,10 +23244,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>55.35263051300493</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>13.55422061770423</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
@@ -23324,7 +23326,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.679892817457926</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -23492,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13.55422061770378</v>
+        <v>17.7759312759303</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
@@ -23729,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>8.38955034880405</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23747,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>85.48824505609757</v>
@@ -23780,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>10.65670172208877</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23899,16 +23901,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>133.7770789072674</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>93.31312169923876</v>
       </c>
     </row>
     <row r="20">
@@ -23978,13 +23980,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>356.9958808389731</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
         <v>85.48824505609757</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,22 +24180,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>8.893130557883893</v>
       </c>
     </row>
     <row r="23">
@@ -24218,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24263,7 +24265,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>308.5558614412299</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>26.43728131980203</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,22 +24417,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884007</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24455,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>49.19646844041381</v>
+        <v>356.995880838973</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>85.48824505609757</v>
@@ -24598,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>80.01033097400514</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
         <v>115.1825854367171</v>
@@ -24652,10 +24654,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>178.2755692717845</v>
       </c>
     </row>
     <row r="29">
@@ -24689,13 +24691,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>134.6847134965114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24728,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>54.06597461814499</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24850,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>93.42449318090684</v>
       </c>
       <c r="I31" t="n">
         <v>115.1825854367171</v>
@@ -24892,7 +24894,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
@@ -24901,7 +24903,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>59.70539135393363</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24929,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24965,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>37.84312462897394</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24977,7 +24979,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>222.499706682461</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>93.42449318090684</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
         <v>237.1532516330649</v>
@@ -25138,10 +25140,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>157.1745055375995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25160,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>88.57144222862047</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25169,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>49.19646844041395</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25324,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>93.42449318090684</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
         <v>115.1825854367171</v>
@@ -25372,7 +25374,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>56.01419322081091</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25409,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>3.083197172522915</v>
+        <v>222.4997066824603</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>123.525524768463</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>140.4341843621653</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25634,19 +25636,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>37.84312462897452</v>
       </c>
       <c r="F41" t="n">
-        <v>356.9958808389731</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>96.60443348087388</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>220.6049088027597</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>102.5059940158878</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25928,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>98.56476487800069</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>55.35263051300493</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>523212.2890117891</v>
+        <v>523212.2890117889</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>523212.2890117891</v>
+        <v>523212.2890117889</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>523212.289011789</v>
+        <v>796533.8357215077</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>796533.8357215074</v>
+        <v>796533.8357215076</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>796533.8357215074</v>
+        <v>796533.8357215077</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>796533.8357215076</v>
+        <v>796533.8357215074</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>796533.8357215074</v>
+        <v>796533.8357215076</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>796533.8357215076</v>
+        <v>796533.8357215077</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>796533.8357215072</v>
+        <v>796533.8357215076</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>523212.289011789</v>
+        <v>796533.8357215077</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>142694.2606395788</v>
+        <v>142694.2606395789</v>
       </c>
       <c r="C2" t="n">
-        <v>142694.2606395788</v>
+        <v>142694.2606395789</v>
       </c>
       <c r="D2" t="n">
-        <v>142694.2606395788</v>
+        <v>142694.2606395789</v>
       </c>
       <c r="E2" t="n">
         <v>142694.2606395789</v>
@@ -26326,13 +26328,13 @@
         <v>142694.2606395789</v>
       </c>
       <c r="G2" t="n">
-        <v>142694.2606395789</v>
+        <v>217236.5006513202</v>
       </c>
       <c r="H2" t="n">
         <v>217236.5006513203</v>
       </c>
       <c r="I2" t="n">
-        <v>217236.5006513203</v>
+        <v>217236.5006513204</v>
       </c>
       <c r="J2" t="n">
         <v>217236.5006513203</v>
@@ -26341,7 +26343,7 @@
         <v>217236.5006513203</v>
       </c>
       <c r="L2" t="n">
-        <v>217236.5006513203</v>
+        <v>217236.5006513204</v>
       </c>
       <c r="M2" t="n">
         <v>217236.5006513203</v>
@@ -26353,7 +26355,7 @@
         <v>217236.5006513203</v>
       </c>
       <c r="P2" t="n">
-        <v>142694.2606395788</v>
+        <v>217236.5006513204</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>174955.5098931141</v>
+        <v>174955.509893114</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>176368.942334311</v>
       </c>
       <c r="H3" t="n">
-        <v>173617.4105196494</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.800805895</v>
+        <v>136594.8008058949</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>154854.7433887088</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,7 +26420,7 @@
         <v>433.9049324434263</v>
       </c>
       <c r="C4" t="n">
-        <v>433.9049324434263</v>
+        <v>433.9049324434262</v>
       </c>
       <c r="D4" t="n">
         <v>433.9049324434263</v>
@@ -26430,10 +26432,10 @@
         <v>433.9049324434263</v>
       </c>
       <c r="G4" t="n">
-        <v>433.9049324434263</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="H4" t="n">
-        <v>738.1279301446466</v>
+        <v>738.1279301446465</v>
       </c>
       <c r="I4" t="n">
         <v>738.1279301446466</v>
@@ -26442,22 +26444,22 @@
         <v>738.1279301446466</v>
       </c>
       <c r="K4" t="n">
+        <v>738.1279301446466</v>
+      </c>
+      <c r="L4" t="n">
         <v>738.1279301446465</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>738.1279301446466</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>738.1279301446465</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>738.1279301446466</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>738.1279301446465</v>
-      </c>
-      <c r="P4" t="n">
-        <v>433.9049324434263</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65369.06507849755</v>
+        <v>65369.06507849754</v>
       </c>
       <c r="C5" t="n">
-        <v>65369.06507849755</v>
+        <v>65369.06507849754</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849755</v>
+        <v>65369.06507849754</v>
       </c>
       <c r="E5" t="n">
         <v>31741.46507849755</v>
@@ -26482,7 +26484,7 @@
         <v>31741.46507849755</v>
       </c>
       <c r="G5" t="n">
-        <v>31741.46507849755</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="H5" t="n">
         <v>70865.21024487332</v>
@@ -26509,7 +26511,7 @@
         <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>31741.46507849755</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-98064.21926447621</v>
+        <v>-98064.21926447609</v>
       </c>
       <c r="C6" t="n">
-        <v>76891.29062863786</v>
+        <v>76891.29062863791</v>
       </c>
       <c r="D6" t="n">
-        <v>76891.29062863786</v>
+        <v>76891.29062863789</v>
       </c>
       <c r="E6" t="n">
         <v>110518.8906286379</v>
@@ -26534,16 +26536,16 @@
         <v>110518.8906286379</v>
       </c>
       <c r="G6" t="n">
-        <v>110518.8906286379</v>
+        <v>-30735.7798580087</v>
       </c>
       <c r="H6" t="n">
-        <v>-27984.24804334703</v>
+        <v>145633.1624763024</v>
       </c>
       <c r="I6" t="n">
         <v>145633.1624763024</v>
       </c>
       <c r="J6" t="n">
-        <v>9038.361670407379</v>
+        <v>9038.361670407408</v>
       </c>
       <c r="K6" t="n">
         <v>145633.1624763024</v>
@@ -26558,10 +26560,10 @@
         <v>145633.1624763024</v>
       </c>
       <c r="O6" t="n">
+        <v>-9221.580912406469</v>
+      </c>
+      <c r="P6" t="n">
         <v>145633.1624763024</v>
-      </c>
-      <c r="P6" t="n">
-        <v>110518.8906286378</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="C4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="E4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="F4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="G4" t="n">
-        <v>522.0635703700256</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="H4" t="n">
         <v>1165.546221132785</v>
@@ -26829,7 +26831,7 @@
         <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>522.0635703700256</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,16 +27026,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>643.4826507627595</v>
       </c>
       <c r="H4" t="n">
-        <v>643.4826507627594</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>643.4826507627595</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>643.4826507627595</v>
       </c>
       <c r="P4" t="n">
-        <v>643.4826507627594</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>460.0037840019794</v>
+        <v>400.9092955204427</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
         <v>40.9663087773382</v>
@@ -34781,25 +34783,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M3" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>471.1119924130245</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P3" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34936,28 +34938,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="L5" t="n">
-        <v>135.5987266329976</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O5" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M6" t="n">
-        <v>306.2096305948393</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N6" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35176,25 +35178,25 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>135.5987266329975</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O8" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>176.5650354103356</v>
       </c>
       <c r="Q8" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M9" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>474.8949538093261</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="Q9" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>522.0635703700256</v>
+        <v>441.8756042977809</v>
       </c>
       <c r="M11" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N11" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O11" t="n">
-        <v>460.0037840019794</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>194.760462184478</v>
+        <v>40.55973291537934</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M12" t="n">
-        <v>306.2096305948393</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N12" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O12" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35647,28 +35649,28 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N14" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O14" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P14" t="n">
-        <v>460.0037840019794</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>306.2096305948393</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M15" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>522.0635703700256</v>
+        <v>40.55973291537929</v>
       </c>
       <c r="O15" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35881,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L17" t="n">
-        <v>522.0635703700256</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M17" t="n">
-        <v>522.0635703700256</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N17" t="n">
-        <v>522.0635703700256</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O17" t="n">
-        <v>460.0037840019794</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
         <v>40.9663087773382</v>
@@ -35966,16 +35968,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>522.0635703700256</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N18" t="n">
-        <v>500.9700927793172</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>522.0635703700256</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36127,7 +36129,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M20" t="n">
-        <v>784.1601929209637</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N20" t="n">
         <v>760.7889056955737</v>
@@ -36139,7 +36141,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q20" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R20" t="n">
         <v>40.9663087773382</v>
@@ -36209,7 +36211,7 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N21" t="n">
-        <v>504.6010349596355</v>
+        <v>504.6010349596356</v>
       </c>
       <c r="O21" t="n">
         <v>711.0677682281761</v>
@@ -36446,10 +36448,10 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N24" t="n">
-        <v>504.6010349596355</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629454</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36616,7 +36618,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R26" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,10 +36682,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N27" t="n">
-        <v>504.6010349596355</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O27" t="n">
         <v>711.0677682281761</v>
@@ -36908,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>422.5377309976959</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P30" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37090,7 +37092,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R32" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,19 +37153,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>788.7133462788644</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37324,10 +37326,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q35" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>278.8496521518734</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N36" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37546,7 +37548,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L38" t="n">
-        <v>719.7892927396346</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M38" t="n">
         <v>784.1601929209636</v>
@@ -37619,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>460.4103598639381</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="L39" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>33.15638339129857</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37780,7 +37782,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>543.5954556656965</v>
+        <v>543.5954556656966</v>
       </c>
       <c r="L41" t="n">
         <v>719.7892927396343</v>
@@ -37801,7 +37803,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,16 +37867,16 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N42" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O42" t="n">
-        <v>617.2981931821739</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P42" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38017,22 +38019,22 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
-        <v>400.909295520443</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>522.0635703700256</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>522.0635703700256</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
         <v>324.4050573689818</v>
@@ -38093,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>147.5918456237788</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>522.0635703700256</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>522.0635703700256</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N45" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>618012.4806982349</v>
+        <v>613919.6096819435</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6750972.622617717</v>
+        <v>6750972.62261771</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5193450.22346122</v>
+        <v>5193450.223461223</v>
       </c>
     </row>
     <row r="9">
@@ -664,13 +664,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>336.9775838208266</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.6425927105681</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
@@ -876,16 +876,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>262.2537570519885</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>149.8451987105457</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,10 +910,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>155.102398462748</v>
+        <v>18.84548549550065</v>
       </c>
     </row>
     <row r="6">
@@ -1056,19 +1056,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1107,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>76.43104772188462</v>
       </c>
       <c r="W7" t="n">
-        <v>54.68688746169084</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
         <v>235.9604235189134</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>393.9470907639069</v>
+        <v>184.6638116093024</v>
       </c>
       <c r="D8" t="n">
         <v>400.41929060787</v>
@@ -1144,7 +1144,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>404.6410012660961</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>42.43741174507631</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>271.0770354214523</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>392.5647472501403</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>166.8806507775566</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>27.35334490128912</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>388.3430365919143</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
@@ -1615,13 +1615,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>322.587577282744</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>228.2601210751802</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>27.35334490128912</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -1861,7 +1861,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1903,10 +1903,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>297.1427106764702</v>
       </c>
       <c r="W17" t="n">
-        <v>369.2659961340943</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>129.1752199258842</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>402.9401476073396</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
@@ -2095,10 +2095,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>254.489886823085</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U22" t="n">
         <v>279.9701659793371</v>
@@ -2307,7 +2307,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>213.595211067239</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,13 +2371,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V23" t="n">
-        <v>37.78331767565417</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
         <v>379.9226978561831</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>228.2601210751809</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
         <v>279.9701659793371</v>
@@ -2544,7 +2544,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="26">
@@ -2566,10 +2566,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>413.7369107533264</v>
       </c>
       <c r="G26" t="n">
-        <v>47.64512042712314</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
         <v>307.7994123985592</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>254.489886823085</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>44.21277235333839</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="29">
@@ -2803,16 +2803,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>282.1353944293379</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>31.42227043795236</v>
       </c>
       <c r="T29" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2955,19 +2955,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>54.68688746169106</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>153.0251390105129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
@@ -3043,13 +3043,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>304.7162152260364</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>96.0851398248662</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>254.489886823085</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>54.68688746169106</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="35">
@@ -3283,10 +3283,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>205.293418382671</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3331,7 +3331,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>208.642724780751</v>
       </c>
       <c r="Y35" t="n">
         <v>396.9273063213908</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>29.06736062834964</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>220.2647746254034</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>31.99018014062471</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
@@ -3675,7 +3675,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>135.844783484049</v>
+        <v>16.6746801468045</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
@@ -3748,19 +3748,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>372.3536886992977</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>237.1532516330649</v>
@@ -3957,16 +3957,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>50.54197880711358</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>98.41262563052148</v>
       </c>
     </row>
     <row r="44">
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.42227043795236</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1277.384018269584</v>
+        <v>451.8896763163319</v>
       </c>
       <c r="C2" t="n">
-        <v>867.259427582854</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D2" t="n">
-        <v>462.7954976759145</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E2" t="n">
-        <v>462.7954976759145</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F2" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
         <v>295.9505570973564</v>
@@ -4339,13 +4339,13 @@
         <v>295.9505570973564</v>
       </c>
       <c r="M2" t="n">
-        <v>812.7934917636815</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N2" t="n">
-        <v>812.7934917636815</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O2" t="n">
-        <v>1209.69369432892</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P2" t="n">
         <v>1726.536628995245</v>
@@ -4357,25 +4357,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V2" t="n">
-        <v>2088.254281480102</v>
+        <v>1603.135651610684</v>
       </c>
       <c r="W2" t="n">
-        <v>2088.254281480102</v>
+        <v>1262.754253811869</v>
       </c>
       <c r="X2" t="n">
-        <v>2088.254281480102</v>
+        <v>862.1108559808214</v>
       </c>
       <c r="Y2" t="n">
-        <v>1687.605197934073</v>
+        <v>862.1108559808214</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G3" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>41.76508562960203</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
-        <v>558.6080202959272</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="M3" t="n">
-        <v>1075.450954962252</v>
+        <v>1207.22713412386</v>
       </c>
       <c r="N3" t="n">
-        <v>1075.450954962252</v>
+        <v>1724.070068790185</v>
       </c>
       <c r="O3" t="n">
-        <v>1592.293889628578</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4445,16 +4445,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4464,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
         <v>470.2970630371111</v>
@@ -4515,25 +4515,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>1145.223475107064</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U4" t="n">
-        <v>862.4253276531883</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V4" t="n">
-        <v>588.5395825927103</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="W4" t="n">
-        <v>309.4699181015847</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X4" t="n">
-        <v>158.1111315252759</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1171.526457795782</v>
+        <v>856.3536062232714</v>
       </c>
       <c r="C5" t="n">
-        <v>761.4018671090519</v>
+        <v>446.2290155365415</v>
       </c>
       <c r="D5" t="n">
-        <v>761.4018671090519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E5" t="n">
-        <v>761.4018671090519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F5" t="n">
-        <v>761.4018671090519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G5" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>537.7254774811263</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L5" t="n">
-        <v>1054.568412147451</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M5" t="n">
-        <v>1054.568412147451</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="N5" t="n">
-        <v>1571.411346813777</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O5" t="n">
-        <v>2088.254281480102</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P5" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
@@ -4597,22 +4597,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U5" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V5" t="n">
-        <v>1738.416726816582</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="W5" t="n">
-        <v>1738.416726816582</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="X5" t="n">
-        <v>1738.416726816582</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="Y5" t="n">
-        <v>1581.747637460271</v>
+        <v>856.3536062232714</v>
       </c>
     </row>
     <row r="6">
@@ -4640,34 +4640,34 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>41.76508562960203</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>558.6080202959272</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M6" t="n">
-        <v>1075.450954962252</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N6" t="n">
-        <v>1571.411346813777</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O6" t="n">
-        <v>2088.254281480102</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4701,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>865.1454348405214</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C7" t="n">
-        <v>694.0520624022379</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D7" t="n">
-        <v>534.5574177251478</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>373.6466025934674</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
-        <v>209.0154767040586</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J7" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K7" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L7" t="n">
         <v>470.2970630371111</v>
@@ -4755,22 +4755,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U7" t="n">
-        <v>1571.163982250452</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V7" t="n">
-        <v>1571.163982250452</v>
+        <v>971.614017266324</v>
       </c>
       <c r="W7" t="n">
-        <v>1515.924701986118</v>
+        <v>692.5443527751984</v>
       </c>
       <c r="X7" t="n">
-        <v>1277.580839845801</v>
+        <v>454.2004906348818</v>
       </c>
       <c r="Y7" t="n">
-        <v>1052.845141234566</v>
+        <v>229.4647920236465</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2088.254281480102</v>
+        <v>1455.826617762472</v>
       </c>
       <c r="C8" t="n">
-        <v>1690.327927173125</v>
+        <v>1269.297515126813</v>
       </c>
       <c r="D8" t="n">
-        <v>1285.863997266186</v>
+        <v>864.8335852198732</v>
       </c>
       <c r="E8" t="n">
-        <v>871.5237817830823</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="F8" t="n">
         <v>450.4933697367699</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L8" t="n">
-        <v>558.6080202959272</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M8" t="n">
-        <v>558.6080202959272</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N8" t="n">
-        <v>1075.450954962252</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O8" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P8" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q8" t="n">
         <v>2088.254281480102</v>
@@ -4834,22 +4834,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U8" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V8" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="W8" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="X8" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="Y8" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
     </row>
     <row r="9">
@@ -4877,34 +4877,34 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>41.76508562960203</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>558.6080202959272</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M9" t="n">
-        <v>1075.450954962252</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N9" t="n">
-        <v>1075.450954962252</v>
+        <v>690.384199457534</v>
       </c>
       <c r="O9" t="n">
-        <v>1592.293889628578</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P9" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C10" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D10" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E10" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F10" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L10" t="n">
         <v>470.2970630371111</v>
@@ -4992,22 +4992,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1528.297909780678</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U10" t="n">
-        <v>1245.499762326802</v>
+        <v>1057.800055932758</v>
       </c>
       <c r="V10" t="n">
-        <v>971.614017266324</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="W10" t="n">
-        <v>692.5443527751984</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X10" t="n">
-        <v>454.2004906348817</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y10" t="n">
-        <v>229.4647920236464</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1691.724233752687</v>
+        <v>1287.260303845748</v>
       </c>
       <c r="C11" t="n">
-        <v>1281.599643065957</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="D11" t="n">
         <v>877.1357131590178</v>
@@ -5029,37 +5029,37 @@
         <v>462.7954976759145</v>
       </c>
       <c r="F11" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G11" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H11" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J11" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K11" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L11" t="n">
-        <v>733.4074053521595</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M11" t="n">
-        <v>1250.250340018485</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N11" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O11" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P11" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q11" t="n">
         <v>2088.254281480102</v>
@@ -5071,22 +5071,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T11" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U11" t="n">
-        <v>2088.254281480102</v>
+        <v>1697.481483510237</v>
       </c>
       <c r="V11" t="n">
-        <v>2088.254281480102</v>
+        <v>1697.481483510237</v>
       </c>
       <c r="W11" t="n">
-        <v>2088.254281480102</v>
+        <v>1697.481483510237</v>
       </c>
       <c r="X11" t="n">
-        <v>2088.254281480102</v>
+        <v>1697.481483510237</v>
       </c>
       <c r="Y11" t="n">
-        <v>2088.254281480102</v>
+        <v>1697.481483510237</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H12" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I12" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J12" t="n">
-        <v>81.91922121582758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K12" t="n">
-        <v>537.7254774811263</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L12" t="n">
-        <v>1054.568412147451</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M12" t="n">
-        <v>1571.411346813777</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N12" t="n">
-        <v>2088.254281480102</v>
+        <v>675.1644281008379</v>
       </c>
       <c r="O12" t="n">
-        <v>2088.254281480102</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P12" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q12" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R12" t="n">
         <v>2088.254281480102</v>
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C13" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D13" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E13" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F13" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G13" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H13" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I13" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J13" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K13" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L13" t="n">
         <v>470.2970630371111</v>
@@ -5229,22 +5229,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T13" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U13" t="n">
-        <v>1571.163982250452</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V13" t="n">
-        <v>1571.163982250452</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W13" t="n">
-        <v>1571.163982250452</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X13" t="n">
-        <v>1543.534340936018</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y13" t="n">
-        <v>1318.798642324783</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="14">
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1695.988587952916</v>
+        <v>1198.766126021982</v>
       </c>
       <c r="C14" t="n">
-        <v>1285.863997266186</v>
+        <v>788.6415353352519</v>
       </c>
       <c r="D14" t="n">
-        <v>1285.863997266186</v>
+        <v>788.6415353352519</v>
       </c>
       <c r="E14" t="n">
-        <v>871.5237817830823</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F14" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G14" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H14" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J14" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K14" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L14" t="n">
-        <v>41.76508562960203</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M14" t="n">
-        <v>558.6080202959272</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N14" t="n">
-        <v>1075.450954962252</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O14" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P14" t="n">
         <v>2088.254281480102</v>
@@ -5308,22 +5308,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T14" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U14" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V14" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="W14" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="X14" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="Y14" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H15" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I15" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J15" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K15" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L15" t="n">
-        <v>1014.414276561226</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M15" t="n">
-        <v>1014.414276561226</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N15" t="n">
-        <v>1054.568412147451</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="O15" t="n">
-        <v>1571.411346813777</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P15" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q15" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R15" t="n">
         <v>2088.254281480102</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C16" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D16" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E16" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F16" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G16" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H16" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J16" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K16" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L16" t="n">
         <v>470.2970630371111</v>
@@ -5466,22 +5466,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T16" t="n">
-        <v>1571.163982250452</v>
+        <v>1340.598203386633</v>
       </c>
       <c r="U16" t="n">
-        <v>1571.163982250452</v>
+        <v>1057.800055932758</v>
       </c>
       <c r="V16" t="n">
-        <v>1571.163982250452</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="W16" t="n">
-        <v>1571.163982250452</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X16" t="n">
-        <v>1543.534340936018</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y16" t="n">
-        <v>1318.798642324783</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2462.839627293158</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C17" t="n">
-        <v>2052.715036606428</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D17" t="n">
-        <v>1648.251106699488</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E17" t="n">
-        <v>1233.910891216385</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F17" t="n">
-        <v>812.8804791700727</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G17" t="n">
-        <v>404.1521950629048</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H17" t="n">
         <v>93.2436976906228</v>
@@ -5515,10 +5515,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5551,16 +5551,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V17" t="n">
-        <v>4047.636833531609</v>
+        <v>3747.492681333154</v>
       </c>
       <c r="W17" t="n">
-        <v>3674.640877840605</v>
+        <v>3363.732380468323</v>
       </c>
       <c r="X17" t="n">
-        <v>3273.997480009557</v>
+        <v>2963.088982637275</v>
       </c>
       <c r="Y17" t="n">
-        <v>2873.060806957647</v>
+        <v>2562.152309585365</v>
       </c>
     </row>
     <row r="18">
@@ -5594,19 +5594,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M18" t="n">
-        <v>562.1177108836107</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N18" t="n">
-        <v>1435.775802995229</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O18" t="n">
         <v>2139.732893541123</v>
@@ -5697,25 +5697,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1297.821136963575</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>1015.022989509699</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V19" t="n">
-        <v>741.1372444492208</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W19" t="n">
-        <v>462.0675799580952</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X19" t="n">
-        <v>223.7237178177785</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y19" t="n">
         <v>93.2436976906228</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2102.237727455811</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C20" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D20" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E20" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F20" t="n">
-        <v>452.2785793327262</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G20" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H20" t="n">
         <v>93.2436976906228</v>
@@ -5779,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172211</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y20" t="n">
-        <v>2512.458907120301</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C21" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D21" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E21" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F21" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G21" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H21" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I21" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>2615.69568868064</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>2615.69568868064</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>2615.69568868064</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M21" t="n">
-        <v>3458.672769375206</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N21" t="n">
-        <v>3958.227793985246</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O21" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P21" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q21" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R21" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S21" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T21" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U21" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V21" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W21" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X21" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y21" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K22" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L22" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M22" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N22" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O22" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P22" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>4422.636145507842</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U22" t="n">
-        <v>4139.837998053967</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V22" t="n">
-        <v>3865.952252993488</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W22" t="n">
-        <v>3586.882588502363</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X22" t="n">
-        <v>3348.538726362046</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C23" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D23" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E23" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F23" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G23" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H23" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6019,22 +6019,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4439.978400477999</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U23" t="n">
-        <v>4182.917908737509</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V23" t="n">
-        <v>4144.752941388363</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W23" t="n">
-        <v>3760.992640523532</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X23" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y23" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C24" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D24" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E24" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F24" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G24" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H24" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I24" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>2615.69568868064</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>2615.69568868064</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>2615.69568868064</v>
+        <v>1296.755812846556</v>
       </c>
       <c r="M24" t="n">
-        <v>3458.672769375206</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N24" t="n">
-        <v>4332.330861486824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O24" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P24" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q24" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R24" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S24" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T24" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U24" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V24" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W24" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X24" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y24" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K25" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L25" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M25" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N25" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O25" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P25" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>4431.619105667321</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U25" t="n">
-        <v>4148.820958213445</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V25" t="n">
-        <v>3874.935213152967</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W25" t="n">
-        <v>3595.865548661841</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X25" t="n">
-        <v>3357.521686521525</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2102.237727455811</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C26" t="n">
-        <v>1692.113136769081</v>
+        <v>2049.600696028122</v>
       </c>
       <c r="D26" t="n">
-        <v>1287.649206862142</v>
+        <v>1645.136766121183</v>
       </c>
       <c r="E26" t="n">
-        <v>873.3089913790386</v>
+        <v>1230.796550638079</v>
       </c>
       <c r="F26" t="n">
-        <v>452.2785793327262</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G26" t="n">
         <v>404.1521950629048</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T26" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U26" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V26" t="n">
-        <v>3697.79927886809</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W26" t="n">
-        <v>3314.038978003258</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X26" t="n">
-        <v>2913.395580172211</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y26" t="n">
-        <v>2512.458907120301</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="27">
@@ -6305,19 +6305,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M27" t="n">
-        <v>562.1177108836107</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N27" t="n">
-        <v>1435.775802995229</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O27" t="n">
         <v>2139.732893541123</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3303.879360348573</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K28" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L28" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M28" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N28" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O28" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P28" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>4422.636145507842</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U28" t="n">
-        <v>4139.837998053967</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V28" t="n">
-        <v>3865.952252993488</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W28" t="n">
-        <v>3586.882588502363</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X28" t="n">
-        <v>3348.538726362046</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y28" t="n">
-        <v>3303.879360348573</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C29" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D29" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E29" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F29" t="n">
-        <v>588.3237444807176</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G29" t="n">
-        <v>179.5954603735497</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H29" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6490,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4526.90380932524</v>
+        <v>4630.445217422097</v>
       </c>
       <c r="T29" t="n">
-        <v>4304.697325272099</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="U29" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V29" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W29" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X29" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y29" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="30">
@@ -6542,19 +6542,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M30" t="n">
-        <v>936.2207783851894</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N30" t="n">
-        <v>1435.775802995229</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O30" t="n">
         <v>2139.732893541123</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4011.405617385543</v>
+        <v>264.3370701289063</v>
       </c>
       <c r="C31" t="n">
-        <v>3840.31224494726</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
-        <v>3680.81760027017</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
-        <v>3519.906785138489</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>3355.27565924908</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>3188.025268174624</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K31" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L31" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M31" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N31" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O31" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P31" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U31" t="n">
-        <v>4662.18488453114</v>
+        <v>1468.071746826106</v>
       </c>
       <c r="V31" t="n">
-        <v>4662.18488453114</v>
+        <v>1194.186001765628</v>
       </c>
       <c r="W31" t="n">
-        <v>4662.18488453114</v>
+        <v>915.1163372745027</v>
       </c>
       <c r="X31" t="n">
-        <v>4423.841022390823</v>
+        <v>676.772475134186</v>
       </c>
       <c r="Y31" t="n">
-        <v>4199.105323779588</v>
+        <v>452.0367765229507</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2140.463105868917</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C32" t="n">
-        <v>1730.338515182187</v>
+        <v>2049.600696028122</v>
       </c>
       <c r="D32" t="n">
-        <v>1325.874585275247</v>
+        <v>1645.136766121183</v>
       </c>
       <c r="E32" t="n">
-        <v>911.5343697921442</v>
+        <v>1230.796550638079</v>
       </c>
       <c r="F32" t="n">
-        <v>490.5039577458317</v>
+        <v>809.7661385917668</v>
       </c>
       <c r="G32" t="n">
-        <v>490.5039577458317</v>
+        <v>401.0378544845989</v>
       </c>
       <c r="H32" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4565.129187738346</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T32" t="n">
-        <v>4342.922703685204</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U32" t="n">
-        <v>4085.862211944715</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V32" t="n">
-        <v>3736.024657281195</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W32" t="n">
-        <v>3352.264356416364</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X32" t="n">
-        <v>2951.620958585316</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y32" t="n">
-        <v>2550.684285533406</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="33">
@@ -6779,16 +6779,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>754.331869609911</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M33" t="n">
-        <v>1597.308950304478</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N33" t="n">
         <v>2139.732893541123</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4011.405617385543</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C34" t="n">
-        <v>3840.31224494726</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
-        <v>3680.81760027017</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>3519.906785138489</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>3355.27565924908</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>3188.025268174624</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K34" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L34" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M34" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N34" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O34" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P34" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>4662.18488453114</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U34" t="n">
-        <v>4662.18488453114</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V34" t="n">
-        <v>4662.18488453114</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W34" t="n">
-        <v>4662.18488453114</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X34" t="n">
-        <v>4423.841022390823</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y34" t="n">
-        <v>4199.105323779588</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2151.931129920876</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C35" t="n">
-        <v>1741.806539234146</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D35" t="n">
-        <v>1337.342609327206</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E35" t="n">
-        <v>923.0023938441032</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F35" t="n">
-        <v>501.9719817977906</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G35" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H35" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6970,19 +6970,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U35" t="n">
-        <v>4097.330235996674</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V35" t="n">
-        <v>3747.492681333154</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W35" t="n">
-        <v>3363.732380468323</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X35" t="n">
-        <v>2963.088982637275</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y35" t="n">
-        <v>2562.152309585365</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="36">
@@ -7016,19 +7016,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M36" t="n">
-        <v>936.2207783851894</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N36" t="n">
-        <v>1809.878870496807</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O36" t="n">
         <v>2139.732893541123</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>749.3736558270855</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C37" t="n">
-        <v>578.280283388802</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D37" t="n">
-        <v>418.7856387117121</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E37" t="n">
-        <v>257.8748235800315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
         <v>93.2436976906228</v>
@@ -7122,25 +7122,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T37" t="n">
-        <v>1622.642594311473</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U37" t="n">
-        <v>1622.642594311473</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V37" t="n">
-        <v>1622.642594311473</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="W37" t="n">
-        <v>1400.152922972682</v>
+        <v>360.9485301626057</v>
       </c>
       <c r="X37" t="n">
-        <v>1161.809060832365</v>
+        <v>122.6046680222891</v>
       </c>
       <c r="Y37" t="n">
-        <v>937.0733622211299</v>
+        <v>122.6046680222891</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C38" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D38" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E38" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F38" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G38" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H38" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7201,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T38" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U38" t="n">
-        <v>4494.590496051882</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V38" t="n">
-        <v>4144.752941388363</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W38" t="n">
-        <v>3760.992640523532</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X38" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y38" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="39">
@@ -7253,16 +7253,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>423.0977207349383</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>423.0977207349383</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M39" t="n">
-        <v>1266.074801429505</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N39" t="n">
         <v>2139.732893541123</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>749.3736558270855</v>
+        <v>586.0360297861687</v>
       </c>
       <c r="C40" t="n">
-        <v>578.280283388802</v>
+        <v>586.0360297861687</v>
       </c>
       <c r="D40" t="n">
-        <v>418.7856387117121</v>
+        <v>586.0360297861687</v>
       </c>
       <c r="E40" t="n">
-        <v>257.8748235800315</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="F40" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G40" t="n">
         <v>93.2436976906228</v>
@@ -7356,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U40" t="n">
-        <v>1537.369875986873</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V40" t="n">
-        <v>1537.369875986873</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="W40" t="n">
-        <v>1400.152922972682</v>
+        <v>1049.115590537721</v>
       </c>
       <c r="X40" t="n">
-        <v>1161.809060832365</v>
+        <v>810.771728397404</v>
       </c>
       <c r="Y40" t="n">
-        <v>937.0733622211299</v>
+        <v>586.0360297861687</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C41" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D41" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E41" t="n">
-        <v>911.5343697921442</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F41" t="n">
-        <v>490.5039577458317</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G41" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H41" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
@@ -7414,7 +7414,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
         <v>1598.180070079655</v>
@@ -7438,25 +7438,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T41" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U41" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V41" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W41" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X41" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y41" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="42">
@@ -7490,19 +7490,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M42" t="n">
-        <v>936.2207783851894</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N42" t="n">
-        <v>1809.878870496807</v>
+        <v>1615.520903630173</v>
       </c>
       <c r="O42" t="n">
         <v>2139.732893541123</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>589.8790111499956</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="C43" t="n">
-        <v>418.7856387117121</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="D43" t="n">
-        <v>418.7856387117121</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="E43" t="n">
-        <v>257.8748235800315</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="F43" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G43" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H43" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I43" t="n">
         <v>93.2436976906228</v>
@@ -7593,28 +7593,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U43" t="n">
-        <v>828.6312213896092</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V43" t="n">
-        <v>777.5787175440399</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W43" t="n">
-        <v>777.5787175440399</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X43" t="n">
-        <v>777.5787175440399</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y43" t="n">
-        <v>777.5787175440399</v>
+        <v>209.5897435862967</v>
       </c>
     </row>
     <row r="44">
@@ -7675,10 +7675,10 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>4630.445217422097</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T44" t="n">
-        <v>4408.238733368956</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U44" t="n">
         <v>4408.238733368956</v>
@@ -7987,16 +7987,16 @@
         <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>494.0990711462258</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509096</v>
+        <v>494.5586588013271</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
@@ -8057,31 +8057,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808745</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>579.6278541084429</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700255</v>
+        <v>395.7562197346337</v>
       </c>
       <c r="P3" t="n">
-        <v>555.2297277821212</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8218,28 +8218,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>590.1064824525346</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>228.888951090043</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266448</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958086</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,31 +8294,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808745</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>554.1634861730674</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700255</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>392.2643757374374</v>
       </c>
       <c r="Q6" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M8" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266448</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O8" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
-        <v>270.2143986912198</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
         <v>87.31214281472352</v>
@@ -8531,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808745</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700255</v>
+        <v>564.4415429491204</v>
       </c>
       <c r="P9" t="n">
-        <v>555.2297277821212</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8692,16 +8692,16 @@
         <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L11" t="n">
-        <v>537.3610023606258</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M11" t="n">
-        <v>615.3537948270709</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N11" t="n">
-        <v>614.9758611266448</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O11" t="n">
         <v>93.18977562578313</v>
@@ -8710,7 +8710,7 @@
         <v>93.64936328088416</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R11" t="n">
         <v>87.31214281472352</v>
@@ -8768,31 +8768,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>91.92897171537935</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>578.1780941808745</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>579.6278541084429</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N12" t="n">
-        <v>575.2569637637754</v>
+        <v>170.9271386512354</v>
       </c>
       <c r="O12" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L14" t="n">
-        <v>95.48539806284482</v>
+        <v>339.7024893595824</v>
       </c>
       <c r="M14" t="n">
-        <v>615.3537948270709</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N14" t="n">
-        <v>614.9758611266448</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O14" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P14" t="n">
-        <v>594.6194560602016</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q14" t="n">
         <v>90.03380439915205</v>
@@ -9005,31 +9005,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>578.1780941808745</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M15" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N15" t="n">
-        <v>93.75312630912927</v>
+        <v>391.1981341283837</v>
       </c>
       <c r="O15" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>576.3232053728292</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
         <v>632.7318453389136</v>
@@ -9187,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,22 +9242,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>531.1743980747688</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
@@ -9421,7 +9421,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q20" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
         <v>128.2784515920617</v>
@@ -9479,22 +9479,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N21" t="n">
-        <v>557.7944283533856</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
@@ -9716,22 +9716,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>616.6125049502444</v>
       </c>
       <c r="M24" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629454</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
@@ -9898,7 +9898,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R26" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,22 +9953,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>531.1743980747688</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
         <v>54.25963500280375</v>
@@ -10190,22 +10190,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N30" t="n">
-        <v>557.7944283533855</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
         <v>54.25963500280375</v>
@@ -10427,19 +10427,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N33" t="n">
-        <v>601.0963663600584</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
         <v>57.751479</v>
@@ -10609,7 +10609,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,22 +10664,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
         <v>54.25963500280375</v>
@@ -10901,19 +10901,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>389.0116646475603</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
         <v>57.751479</v>
@@ -11062,7 +11062,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
         <v>815.2746908024792</v>
@@ -11138,22 +11138,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O42" t="n">
-        <v>390.9373608629449</v>
+        <v>587.2585395161113</v>
       </c>
       <c r="P42" t="n">
         <v>54.25963500280375</v>
@@ -22552,13 +22552,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>404.6410012660961</v>
@@ -22597,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
@@ -22606,16 +22606,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>42.94511403535654</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.2847136108227346</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -22725,7 +22725,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22755,7 +22755,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22764,16 +22764,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>8.893130557884717</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>86.11522480836777</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
@@ -22798,10 +22798,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -22837,22 +22837,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.8249078586428</v>
+        <v>378.0818208258901</v>
       </c>
     </row>
     <row r="6">
@@ -22944,19 +22944,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
@@ -22995,16 +22995,16 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>194.7158398879886</v>
       </c>
       <c r="W7" t="n">
-        <v>221.5920803845235</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -23020,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>12.07625401595567</v>
+        <v>221.3595331705602</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -23032,7 +23032,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -23074,7 +23074,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
         <v>169.3824387139007</v>
@@ -23232,10 +23232,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>194.7158398879886</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>8.893130557884774</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.55422061770423</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23311,10 +23311,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>87.60923604552838</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,22 +23469,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>208.6070786176243</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>17.7759312759303</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23503,13 +23503,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>87.60923604552823</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
@@ -23548,10 +23548,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,19 +23706,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884689</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>208.6070786176243</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
         <v>85.48824505609757</v>
@@ -23791,10 +23791,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>49.19646844041392</v>
       </c>
       <c r="W17" t="n">
-        <v>10.65670172208877</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
         <v>184.5278504388888</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.31312169923876</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="20">
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>3.083197172522944</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>85.48824505609757</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>8.893130557883893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,13 +24259,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V23" t="n">
-        <v>308.5558614412299</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>8.893130557884007</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="26">
@@ -24454,10 +24454,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>3.083197172522887</v>
       </c>
       <c r="G26" t="n">
-        <v>356.995880838973</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>178.2755692717845</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="29">
@@ -24691,16 +24691,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>102.5059940158878</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>93.42449318090684</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
         <v>115.1825854367171</v>
@@ -24894,13 +24894,13 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>126.9450269688242</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>3.08319717252283</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>37.84312462897394</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>93.42449318090684</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
         <v>115.1825854367171</v>
@@ -25128,22 +25128,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="35">
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>49.19646844041395</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25219,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>187.994239071986</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>156.7553487017543</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
         <v>165.577887163712</v>
@@ -25362,25 +25362,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>56.01419322081091</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>222.4997066824603</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.1113806425979</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
         <v>184.5278504388888</v>
@@ -25605,13 +25605,13 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>140.4341843621653</v>
+        <v>259.6042876994098</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25636,19 +25636,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>37.84312462897452</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>165.577887163712</v>
@@ -25806,7 +25806,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>220.6049088027597</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>124.0757159946015</v>
       </c>
     </row>
     <row r="44">
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>102.5059940158878</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>523212.289011789</v>
+        <v>523212.2890117889</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>523212.2890117889</v>
+        <v>523212.2890117891</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>523212.2890117889</v>
+        <v>523212.2890117891</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>796533.8357215077</v>
+        <v>796533.8357215076</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>796533.8357215076</v>
+        <v>796533.8357215077</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>796533.8357215076</v>
+        <v>796533.8357215077</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>796533.8357215074</v>
+        <v>796533.8357215079</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>796533.8357215076</v>
+        <v>796533.8357215077</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>796533.8357215076</v>
+        <v>796533.8357215074</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>796533.8357215076</v>
+        <v>796533.8357215077</v>
       </c>
     </row>
     <row r="16">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>142694.2606395789</v>
+        <v>142694.2606395788</v>
       </c>
       <c r="C2" t="n">
-        <v>142694.2606395789</v>
+        <v>142694.2606395788</v>
       </c>
       <c r="D2" t="n">
         <v>142694.2606395789</v>
       </c>
       <c r="E2" t="n">
-        <v>142694.2606395789</v>
+        <v>142694.2606395788</v>
       </c>
       <c r="F2" t="n">
         <v>142694.2606395789</v>
       </c>
       <c r="G2" t="n">
-        <v>217236.5006513202</v>
+        <v>217236.5006513203</v>
       </c>
       <c r="H2" t="n">
         <v>217236.5006513203</v>
       </c>
       <c r="I2" t="n">
-        <v>217236.5006513204</v>
+        <v>217236.5006513203</v>
       </c>
       <c r="J2" t="n">
         <v>217236.5006513203</v>
@@ -26343,19 +26343,19 @@
         <v>217236.5006513203</v>
       </c>
       <c r="L2" t="n">
-        <v>217236.5006513204</v>
+        <v>217236.5006513203</v>
       </c>
       <c r="M2" t="n">
         <v>217236.5006513203</v>
       </c>
       <c r="N2" t="n">
-        <v>217236.5006513204</v>
+        <v>217236.5006513203</v>
       </c>
       <c r="O2" t="n">
         <v>217236.5006513203</v>
       </c>
       <c r="P2" t="n">
-        <v>217236.5006513204</v>
+        <v>217236.5006513203</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>174955.509893114</v>
+        <v>174955.5098931141</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>176368.942334311</v>
+        <v>176368.9423343109</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.8008058949</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>433.9049324434263</v>
       </c>
       <c r="C4" t="n">
-        <v>433.9049324434262</v>
+        <v>433.9049324434263</v>
       </c>
       <c r="D4" t="n">
         <v>433.9049324434263</v>
@@ -26435,7 +26435,7 @@
         <v>738.1279301446466</v>
       </c>
       <c r="H4" t="n">
-        <v>738.1279301446465</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="I4" t="n">
         <v>738.1279301446466</v>
@@ -26447,19 +26447,19 @@
         <v>738.1279301446466</v>
       </c>
       <c r="L4" t="n">
-        <v>738.1279301446465</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="M4" t="n">
         <v>738.1279301446466</v>
       </c>
       <c r="N4" t="n">
-        <v>738.1279301446465</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="O4" t="n">
         <v>738.1279301446466</v>
       </c>
       <c r="P4" t="n">
-        <v>738.1279301446465</v>
+        <v>738.1279301446466</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65369.06507849754</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="C5" t="n">
-        <v>65369.06507849754</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849754</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
         <v>31741.46507849755</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-98064.21926447609</v>
+        <v>-98741.74812387026</v>
       </c>
       <c r="C6" t="n">
-        <v>76891.29062863791</v>
+        <v>76213.76176924381</v>
       </c>
       <c r="D6" t="n">
-        <v>76891.29062863789</v>
+        <v>76213.76176924384</v>
       </c>
       <c r="E6" t="n">
-        <v>110518.8906286379</v>
+        <v>109841.3617692438</v>
       </c>
       <c r="F6" t="n">
-        <v>110518.8906286379</v>
+        <v>109841.3617692438</v>
       </c>
       <c r="G6" t="n">
-        <v>-30735.7798580087</v>
+        <v>-30916.36045065768</v>
       </c>
       <c r="H6" t="n">
-        <v>145633.1624763024</v>
+        <v>145452.5818836533</v>
       </c>
       <c r="I6" t="n">
-        <v>145633.1624763024</v>
+        <v>145452.5818836533</v>
       </c>
       <c r="J6" t="n">
-        <v>9038.361670407408</v>
+        <v>8857.78107775822</v>
       </c>
       <c r="K6" t="n">
-        <v>145633.1624763024</v>
+        <v>145452.5818836533</v>
       </c>
       <c r="L6" t="n">
-        <v>145633.1624763024</v>
+        <v>145452.5818836533</v>
       </c>
       <c r="M6" t="n">
-        <v>145633.1624763024</v>
+        <v>145452.5818836533</v>
       </c>
       <c r="N6" t="n">
-        <v>145633.1624763024</v>
+        <v>145452.5818836533</v>
       </c>
       <c r="O6" t="n">
-        <v>-9221.580912406469</v>
+        <v>-9402.16150505557</v>
       </c>
       <c r="P6" t="n">
-        <v>145633.1624763024</v>
+        <v>145452.5818836533</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="E4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="F4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>643.4826507627595</v>
+        <v>643.4826507627594</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>643.4826507627595</v>
+        <v>643.4826507627594</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>643.4826507627595</v>
+        <v>643.4826507627594</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34707,16 +34707,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>400.9092955204427</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P2" t="n">
-        <v>522.0635703700254</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700254</v>
+        <v>338.0047407346337</v>
       </c>
       <c r="P3" t="n">
-        <v>500.9700927793174</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34938,28 +34938,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>500.9700927793174</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>135.5987266329975</v>
       </c>
       <c r="N5" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>500.9700927793174</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>338.0047407346337</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L8" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N8" t="n">
-        <v>522.0635703700254</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O8" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>176.5650354103356</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700254</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="P9" t="n">
-        <v>500.9700927793174</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35412,16 +35412,16 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L11" t="n">
-        <v>441.8756042977809</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M11" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N11" t="n">
-        <v>522.0635703700254</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -35430,7 +35430,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>40.55973291537934</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N12" t="n">
-        <v>522.0635703700254</v>
+        <v>117.7337452574854</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="M14" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N14" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O14" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>500.9700927793174</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N15" t="n">
-        <v>40.55973291537929</v>
+        <v>338.0047407346337</v>
       </c>
       <c r="O15" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
         <v>543.5954556656965</v>
@@ -35907,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>473.6101143363514</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36141,7 +36141,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q20" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
         <v>40.9663087773382</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N21" t="n">
-        <v>504.6010349596356</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36436,22 +36436,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>560.4979811393954</v>
       </c>
       <c r="M24" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629454</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36673,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>473.6101143363514</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36910,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N30" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37147,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N33" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37621,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>333.1858818629449</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
         <v>719.7892927396343</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O42" t="n">
-        <v>333.1858818629449</v>
+        <v>529.5070605161113</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
